--- a/clustering/two_step/second_step/results/descriptive_stat/normalized/statistics_cluster_XS.xlsx
+++ b/clustering/two_step/second_step/results/descriptive_stat/normalized/statistics_cluster_XS.xlsx
@@ -440,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -454,13 +454,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1834432161485994</v>
+        <v>-0.1990652106175529</v>
       </c>
       <c r="C3">
-        <v>-0.1963236405936088</v>
+        <v>-0.197150052404912</v>
       </c>
       <c r="D3">
-        <v>-0.2037005518422476</v>
+        <v>0.1822126132215281</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.357741507931065</v>
+        <v>-1.870276989912923</v>
       </c>
       <c r="C4">
         <v>-1.41058574296685</v>
       </c>
       <c r="D4">
-        <v>-1.870276989912923</v>
+        <v>-1.357741507931065</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,13 +482,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.3158034178643195</v>
+        <v>-0.5823875374576204</v>
       </c>
       <c r="C5">
-        <v>-0.800704568428155</v>
+        <v>-0.800127389845923</v>
       </c>
       <c r="D5">
-        <v>-0.5471574334540662</v>
+        <v>-0.3144541357633622</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,13 +496,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.00917222687976163</v>
+        <v>-0.2909098894792164</v>
       </c>
       <c r="C6">
-        <v>-0.5555428084575902</v>
+        <v>-0.5541731350171551</v>
       </c>
       <c r="D6">
-        <v>-0.2985302802848732</v>
+        <v>-0.011687574757706</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -510,13 +510,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.296642158700776</v>
+        <v>0.003766542219690319</v>
       </c>
       <c r="C7">
-        <v>-0.04051854242353688</v>
+        <v>-0.0413900644641103</v>
       </c>
       <c r="D7">
-        <v>0.003198778572211</v>
+        <v>0.294830798272288</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.6960101086065119</v>
+        <v>0.2110135791401291</v>
       </c>
       <c r="C8">
-        <v>0.4348372910898167</v>
+        <v>0.4301382780611286</v>
       </c>
       <c r="D8">
-        <v>0.2078643624046132</v>
+        <v>0.6959383644624917</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -538,13 +538,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2.439359738929506</v>
+        <v>0.8255358310858975</v>
       </c>
       <c r="C9">
         <v>1.744516119213567</v>
       </c>
       <c r="D9">
-        <v>0.8255358310858975</v>
+        <v>2.439359738929506</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -552,13 +552,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5943304635948805</v>
+        <v>0.501052267448883</v>
       </c>
       <c r="C10">
-        <v>0.664499940828988</v>
+        <v>0.6636940855446229</v>
       </c>
       <c r="D10">
-        <v>0.4944247328736906</v>
+        <v>0.5940573378654189</v>
       </c>
     </row>
   </sheetData>
@@ -590,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -604,13 +604,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.2906541060580369</v>
       </c>
       <c r="C3">
-        <v>4.27954859926329</v>
+        <v>4.278575396120393</v>
       </c>
       <c r="D3">
-        <v>0.3211164546966914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.168838400018998</v>
+        <v>4.165689066381471</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.432496676674234</v>
+        <v>4.432496306352673</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.801064187830297</v>
+        <v>4.800785549945109</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -688,13 +688,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.514244919405</v>
       </c>
       <c r="C9">
         <v>6.277622648423246</v>
       </c>
       <c r="D9">
-        <v>5.514244919405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -702,13 +702,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.07797263474832</v>
       </c>
       <c r="C10">
-        <v>0.6154998460655934</v>
+        <v>0.6148532837074928</v>
       </c>
       <c r="D10">
-        <v>1.123266063784397</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -740,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -754,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3061872501065562</v>
+        <v>0.3461982476517865</v>
       </c>
       <c r="C3">
-        <v>0.1557719814217645</v>
+        <v>0.1682763822911214</v>
       </c>
       <c r="D3">
-        <v>0.37955145095919</v>
+        <v>0.3053981077093744</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -838,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>4.689454054078582</v>
+      </c>
+      <c r="C9">
+        <v>4.407268277003114</v>
+      </c>
+      <c r="D9">
         <v>7.331021672624879</v>
-      </c>
-      <c r="C9">
-        <v>4.011280873106521</v>
-      </c>
-      <c r="D9">
-        <v>4.689454054078582</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -852,13 +852,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9782837098460783</v>
+        <v>1.005138321812025</v>
       </c>
       <c r="C10">
-        <v>0.6568179166834052</v>
+        <v>0.6951975218902746</v>
       </c>
       <c r="D10">
-        <v>1.070602800495948</v>
+        <v>0.977144079656552</v>
       </c>
     </row>
   </sheetData>
@@ -890,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -904,13 +904,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.04501877913882969</v>
+        <v>-0.1379863378827769</v>
       </c>
       <c r="C3">
-        <v>0.1202007037734578</v>
+        <v>0.1192810448201137</v>
       </c>
       <c r="D3">
-        <v>-0.1387918832709428</v>
+        <v>0.04451249909273792</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -918,13 +918,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.2093340224776916</v>
+        <v>-0.2089119442303386</v>
       </c>
       <c r="C4">
         <v>-0.2084531646983106</v>
       </c>
       <c r="D4">
-        <v>-0.2089119442303386</v>
+        <v>-0.2093340224776916</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -932,13 +932,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.1823596386361132</v>
+        <v>-0.1890901515492143</v>
       </c>
       <c r="C5">
-        <v>-0.1678555972695433</v>
+        <v>-0.1681254996933373</v>
       </c>
       <c r="D5">
-        <v>-0.1893009531773586</v>
+        <v>-0.182314113531336</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -946,13 +946,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.1494339022181762</v>
+        <v>-0.1724749338174122</v>
       </c>
       <c r="C6">
-        <v>-0.1307646098422372</v>
+        <v>-0.131444368879913</v>
       </c>
       <c r="D6">
-        <v>-0.1723870707457381</v>
+        <v>-0.1494654142915062</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -960,13 +960,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0879387858787349</v>
+        <v>-0.1450364312550942</v>
       </c>
       <c r="C7">
-        <v>-0.05648041816444693</v>
+        <v>-0.05761235011774382</v>
       </c>
       <c r="D7">
-        <v>-0.1452658870372794</v>
+        <v>-0.0885226949163779</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -974,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.08162399132486713</v>
+        <v>-0.1040832170511295</v>
       </c>
       <c r="C8">
-        <v>0.2241943364107128</v>
+        <v>0.2237834650582785</v>
       </c>
       <c r="D8">
-        <v>-0.1041266285356576</v>
+        <v>0.0804441627836501</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -988,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2.644143803916086</v>
+        <v>0.8946581544914369</v>
       </c>
       <c r="C9">
         <v>2.810532224428694</v>
       </c>
       <c r="D9">
-        <v>0.8946581544914369</v>
+        <v>2.644143803916086</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1002,13 +1002,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.4592031465675829</v>
+        <v>0.1157870276448537</v>
       </c>
       <c r="C10">
-        <v>0.5526058140537601</v>
+        <v>0.5520506702732807</v>
       </c>
       <c r="D10">
-        <v>0.1141868597174165</v>
+        <v>0.45871873650068</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +1040,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1379655581004033</v>
+        <v>-1.893502277971619</v>
       </c>
       <c r="C3">
-        <v>0.06391644443378076</v>
+        <v>0.05848894924512063</v>
       </c>
       <c r="D3">
-        <v>-1.870261232657791</v>
+        <v>0.1356103255569647</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>-2.742669960085173</v>
+      </c>
+      <c r="C4">
+        <v>-1.781431919710663</v>
+      </c>
+      <c r="D4">
         <v>-1.382608283516048</v>
-      </c>
-      <c r="C4">
-        <v>-1.49106527863887</v>
-      </c>
-      <c r="D4">
-        <v>-2.742669960085173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.3591823133324891</v>
+        <v>-2.435492098650304</v>
       </c>
       <c r="C5">
-        <v>-0.2763977326211655</v>
+        <v>-0.2894113715899828</v>
       </c>
       <c r="D5">
-        <v>-2.433805838119868</v>
+        <v>-0.3597456445406428</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004576004696378746</v>
+        <v>-2.026608286443965</v>
       </c>
       <c r="C6">
-        <v>-0.007476399159980024</v>
+        <v>-0.009226049090917962</v>
       </c>
       <c r="D6">
-        <v>-1.948058205523661</v>
+        <v>0.0035572360171846</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2892824700492401</v>
+        <v>-1.606350834712504</v>
       </c>
       <c r="C7">
-        <v>0.2142232712297762</v>
+        <v>0.2118952845166631</v>
       </c>
       <c r="D7">
-        <v>-1.602187044114192</v>
+        <v>0.2874396391635234</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5798019483822905</v>
+        <v>-1.476780264961838</v>
       </c>
       <c r="C8">
-        <v>0.4570906095117775</v>
+        <v>0.4550435564235201</v>
       </c>
       <c r="D8">
-        <v>-1.472158255371446</v>
+        <v>0.5773890520795896</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.947567047466656</v>
+        <v>-1.311241041489314</v>
       </c>
       <c r="C9">
         <v>1.432386896400785</v>
       </c>
       <c r="D9">
-        <v>-0.7206776444030301</v>
+        <v>1.947567047466656</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5849100208170566</v>
+        <v>0.4451592302853154</v>
       </c>
       <c r="C10">
-        <v>0.4961697126524208</v>
+        <v>0.5054441566579732</v>
       </c>
       <c r="D10">
-        <v>0.4656661645059906</v>
+        <v>0.5859984709905376</v>
       </c>
     </row>
   </sheetData>
@@ -1190,13 +1190,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.01147302414615723</v>
+        <v>0.6076226974745972</v>
       </c>
       <c r="C3">
-        <v>-0.4560251357680076</v>
+        <v>-0.4524052129047913</v>
       </c>
       <c r="D3">
-        <v>0.5893181773399074</v>
+        <v>0.01041170568327356</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.464922212808482</v>
+        <v>-1.304779100584053</v>
       </c>
       <c r="C4">
         <v>-1.648839813858922</v>
       </c>
       <c r="D4">
-        <v>-1.304779100584053</v>
+        <v>-1.464922212808482</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <v>0.1775171616095402</v>
+      </c>
+      <c r="C5">
+        <v>-0.9915695847818662</v>
+      </c>
+      <c r="D5">
         <v>-0.4854590604376444</v>
-      </c>
-      <c r="C5">
-        <v>-0.9927589736723101</v>
-      </c>
-      <c r="D5">
-        <v>0.1533396168406973</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.1328616867940098</v>
+        <v>0.4599151035219396</v>
       </c>
       <c r="C6">
-        <v>-0.6977382237625506</v>
+        <v>-0.6976771983164773</v>
       </c>
       <c r="D6">
-        <v>0.4527459739184881</v>
+        <v>-0.1389718586698579</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2071458355986111</v>
+        <v>0.8351083150898597</v>
       </c>
       <c r="C7">
-        <v>-0.2722466802530072</v>
+        <v>-0.2652450701080939</v>
       </c>
       <c r="D7">
-        <v>0.8066495920773654</v>
+        <v>0.2035947438791736</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5291960152066993</v>
+        <v>1.136934008652719</v>
       </c>
       <c r="C8">
-        <v>0.0655560677134473</v>
+        <v>0.0724137684203757</v>
       </c>
       <c r="D8">
-        <v>1.131973790679548</v>
+        <v>0.5251514008713147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.350447102891897</v>
+        <v>1.428481190205495</v>
       </c>
       <c r="C9">
         <v>1.147959370808881</v>
       </c>
       <c r="D9">
-        <v>1.428481190205495</v>
+        <v>1.350447102891897</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5831148146364575</v>
+        <v>0.5588018911791728</v>
       </c>
       <c r="C10">
-        <v>0.5722133759146244</v>
+        <v>0.575254368914845</v>
       </c>
       <c r="D10">
-        <v>0.568651564788354</v>
+        <v>0.5827601334153368</v>
       </c>
     </row>
   </sheetData>
@@ -1340,13 +1340,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.2032187261046782</v>
+        <v>-1.894168207256165</v>
       </c>
       <c r="C3">
-        <v>-0.09233228420917744</v>
+        <v>-0.09782100600008345</v>
       </c>
       <c r="D3">
-        <v>-1.890132788232067</v>
+        <v>-0.2069687159951524</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-2.17611139002075</v>
+        <v>-2.420021998601095</v>
       </c>
       <c r="C4">
         <v>-2.010723665002164</v>
       </c>
       <c r="D4">
-        <v>-2.420021998601095</v>
+        <v>-2.17611139002075</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.7571324413548619</v>
+        <v>-2.029751719757075</v>
       </c>
       <c r="C5">
-        <v>-0.01698969938650633</v>
+        <v>-0.0175010557577882</v>
       </c>
       <c r="D5">
-        <v>-2.021892058652178</v>
+        <v>-0.7687003497652599</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.008370509686328065</v>
+        <v>-1.93892710206656</v>
       </c>
       <c r="C6">
         <v>0.01489460748213</v>
       </c>
       <c r="D6">
-        <v>-1.93787722489053</v>
+        <v>0.0082318310327837</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.08031632757378457</v>
+        <v>-1.841703539393621</v>
       </c>
       <c r="C7">
-        <v>0.07733566190611799</v>
+        <v>0.0771526300769222</v>
       </c>
       <c r="D7">
-        <v>-1.84133850672623</v>
+        <v>0.0801326168393125</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1013064365880041</v>
+        <v>-1.74796683741064</v>
       </c>
       <c r="C8">
-        <v>0.09809905309150066</v>
+        <v>0.09807873485888567</v>
       </c>
       <c r="D8">
-        <v>-1.742265434462889</v>
+        <v>0.1012275179634615</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.2679803164183745</v>
+        <v>-1.473186461674192</v>
       </c>
       <c r="C9">
         <v>0.147755087545688</v>
       </c>
       <c r="D9">
-        <v>-1.473186461674192</v>
+        <v>0.2679803164183745</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5007778836885701</v>
+        <v>0.1742863494932072</v>
       </c>
       <c r="C10">
-        <v>0.4578829417578364</v>
+        <v>0.4682746998240543</v>
       </c>
       <c r="D10">
-        <v>0.1751416289943701</v>
+        <v>0.5055588515112471</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1504,13 +1504,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.2214583532299399</v>
+        <v>-0.1571102885204274</v>
       </c>
       <c r="C3">
-        <v>0.04102229804517452</v>
+        <v>0.04156601379577662</v>
       </c>
       <c r="D3">
-        <v>-0.1498703418873765</v>
+        <v>-0.2208437465320187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.06700502472657</v>
+        <v>-1.001393069720622</v>
       </c>
       <c r="C4">
         <v>-1.06700502472657</v>
       </c>
       <c r="D4">
-        <v>-1.001393069720622</v>
+        <v>-1.06700502472657</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1532,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.5855510801807755</v>
+        <v>-0.5887216700394134</v>
       </c>
       <c r="C5">
-        <v>-0.4189311038365678</v>
+        <v>-0.4188723666641295</v>
       </c>
       <c r="D5">
-        <v>-0.5872482461311161</v>
+        <v>-0.5854801879436192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.3699039571459199</v>
+        <v>-0.2860567965867663</v>
       </c>
       <c r="C6">
-        <v>-0.06415006904932261</v>
+        <v>-0.06369926333153546</v>
       </c>
       <c r="D6">
-        <v>-0.2822842915687767</v>
+        <v>-0.3683557709617224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1560,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.1487125221444468</v>
+        <v>-0.05912073356581238</v>
       </c>
       <c r="C7">
-        <v>0.20239954212246</v>
+        <v>0.2031496753489754</v>
       </c>
       <c r="D7">
-        <v>-0.0517933918870849</v>
+        <v>-0.1484093080510739</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1486687419580551</v>
+        <v>0.2081440477014024</v>
       </c>
       <c r="C8">
-        <v>0.4519663244328808</v>
+        <v>0.4470953617622821</v>
       </c>
       <c r="D8">
-        <v>0.2169445251349426</v>
+        <v>0.1562280716965304</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.253419667474723</v>
+        <v>1.56343066373663</v>
       </c>
       <c r="C9">
         <v>1.319112482242253</v>
       </c>
       <c r="D9">
-        <v>1.56343066373663</v>
+        <v>1.253419667474723</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.4310703780049056</v>
+        <v>0.463633982913906</v>
       </c>
       <c r="C10">
-        <v>0.4890663255253062</v>
+        <v>0.4884473572864945</v>
       </c>
       <c r="D10">
-        <v>0.4599420397713635</v>
+        <v>0.4308363289465155</v>
       </c>
     </row>
   </sheetData>
@@ -1640,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.08150680542047105</v>
+        <v>5.832916216963125</v>
       </c>
       <c r="C3">
-        <v>0.1939096905279651</v>
+        <v>0.2013599823788247</v>
       </c>
       <c r="D3">
-        <v>5.749423705100412</v>
+        <v>0.08946554565512847</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.6827072955965106</v>
+        <v>2.678548884918099</v>
       </c>
       <c r="C4">
         <v>-0.6698435658691682</v>
       </c>
       <c r="D4">
-        <v>2.678548884918099</v>
+        <v>-0.6827072955965106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.3754545650129093</v>
+        <v>4.331714014717955</v>
       </c>
       <c r="C5">
-        <v>-0.2382713913475038</v>
+        <v>-0.2369691719119058</v>
       </c>
       <c r="D5">
-        <v>4.320923554607389</v>
+        <v>-0.3751512955814253</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.1835255718647751</v>
+        <v>4.952555355462653</v>
       </c>
       <c r="C6">
-        <v>-0.07165430856808343</v>
+        <v>-0.07149382561321872</v>
       </c>
       <c r="D6">
-        <v>4.896496077816182</v>
+        <v>-0.1822902535638751</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0254628236686196</v>
+        <v>6.014750430121481</v>
       </c>
       <c r="C7">
-        <v>0.03647774150011205</v>
+        <v>0.03667877359600774</v>
       </c>
       <c r="D7">
-        <v>5.951144740024751</v>
+        <v>-0.0242355037639349</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.4714848344595841</v>
+        <v>6.764939354592387</v>
       </c>
       <c r="C8">
-        <v>0.6658313099309714</v>
+        <v>0.6689588804249258</v>
       </c>
       <c r="D8">
-        <v>6.751759551364312</v>
+        <v>0.4779642816898131</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.136021601191624</v>
+        <v>14.34730019126676</v>
       </c>
       <c r="C9">
         <v>3.503175013727006</v>
       </c>
       <c r="D9">
-        <v>14.34730019126676</v>
+        <v>3.29062954495504</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6185736575900773</v>
+        <v>1.948659724080443</v>
       </c>
       <c r="C10">
-        <v>0.6815129975107352</v>
+        <v>0.694234978898977</v>
       </c>
       <c r="D10">
-        <v>1.97862370289454</v>
+        <v>0.6373606534600674</v>
       </c>
     </row>
   </sheetData>
@@ -1790,13 +1790,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1804,13 +1804,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1872385899429734</v>
+        <v>-0.5529179467079759</v>
       </c>
       <c r="C3">
-        <v>0.4439745611869648</v>
+        <v>0.441512495131354</v>
       </c>
       <c r="D3">
-        <v>-0.5309766636074766</v>
+        <v>0.1879808147765575</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1818,13 +1818,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.405779496127996</v>
+        <v>-1.198009808288407</v>
       </c>
       <c r="C4">
         <v>-1.436299213515852</v>
       </c>
       <c r="D4">
-        <v>-1.198009808288407</v>
+        <v>-1.405779496127996</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1832,13 +1832,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.3730276554750623</v>
+        <v>-0.8157746920601879</v>
       </c>
       <c r="C5">
-        <v>-0.07658148651184417</v>
+        <v>-0.07768028443405046</v>
       </c>
       <c r="D5">
-        <v>-0.814070366648258</v>
+        <v>-0.372572365037597</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1846,13 +1846,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.02068778490466734</v>
+        <v>-0.6087659651473413</v>
       </c>
       <c r="C6">
-        <v>0.2164602780997825</v>
+        <v>0.216213321361656</v>
       </c>
       <c r="D6">
-        <v>-0.5673778060962084</v>
+        <v>0.0231330726338888</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1860,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.3285377774769955</v>
+        <v>-0.4875019068925003</v>
       </c>
       <c r="C7">
-        <v>0.5551505754909613</v>
+        <v>0.5440600754959993</v>
       </c>
       <c r="D7">
-        <v>-0.4684379738658458</v>
+        <v>0.3298113788894305</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1874,13 +1874,13 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>-0.2814786795177784</v>
+      </c>
+      <c r="C8">
+        <v>0.9325345966837209</v>
+      </c>
+      <c r="D8">
         <v>0.7295950688088295</v>
-      </c>
-      <c r="C8">
-        <v>0.9339145885423815</v>
-      </c>
-      <c r="D8">
-        <v>-0.269745093529727</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1888,13 +1888,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.426629925446929</v>
+        <v>0.0460817648651586</v>
       </c>
       <c r="C9">
         <v>4.448335226604502</v>
       </c>
       <c r="D9">
-        <v>0.8124915473689491</v>
+        <v>3.426629925446929</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1902,13 +1902,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6933995957779721</v>
+        <v>0.2702306584227196</v>
       </c>
       <c r="C10">
-        <v>0.7371724975596839</v>
+        <v>0.7374830670256355</v>
       </c>
       <c r="D10">
-        <v>0.3066258470997855</v>
+        <v>0.6928702913360479</v>
       </c>
     </row>
   </sheetData>
@@ -1940,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1954,13 +1954,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.465641833545948</v>
+        <v>1.774662321522545</v>
       </c>
       <c r="C3">
-        <v>0.1514363912246897</v>
+        <v>0.1594051831373953</v>
       </c>
       <c r="D3">
-        <v>1.756835610547633</v>
+        <v>0.4652956735555678</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1968,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.071113177237871</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.071113177237871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1982,13 +1982,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.169326176092316</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.144597856991599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1996,13 +1996,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.67404070876112</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.650493959977893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2010,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.88833524686845</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.887824042217114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2024,13 +2024,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.171168586569814</v>
+        <v>2.394090870943739</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.398800798196143</v>
+        <v>1.16378796620853</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2038,13 +2038,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.723360135569766</v>
+        <v>3.08415339335035</v>
       </c>
       <c r="C9">
         <v>3.191685295997669</v>
       </c>
       <c r="D9">
-        <v>3.08415339335035</v>
+        <v>3.723360135569766</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2052,13 +2052,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.8105087391583028</v>
+        <v>0.6710399216263121</v>
       </c>
       <c r="C10">
-        <v>0.4704894416004363</v>
+        <v>0.4922376392806485</v>
       </c>
       <c r="D10">
-        <v>0.7003090564417939</v>
+        <v>0.8095312882613309</v>
       </c>
     </row>
   </sheetData>
@@ -2090,13 +2090,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.05680382352056722</v>
+        <v>-0.4415346283641308</v>
       </c>
       <c r="C3">
-        <v>0.1354860527977037</v>
+        <v>0.13382468429632</v>
       </c>
       <c r="D3">
-        <v>-0.4384005890061458</v>
+        <v>-0.05740315216131728</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-1.925368162030772</v>
+        <v>-1.028866435507183</v>
       </c>
       <c r="C4">
         <v>-1.945912105566731</v>
       </c>
       <c r="D4">
-        <v>-1.028866435507183</v>
+        <v>-1.925368162030772</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.6208939027832482</v>
+        <v>-0.7257556624735597</v>
       </c>
       <c r="C5">
-        <v>-0.3569360036462201</v>
+        <v>-0.3611916911851655</v>
       </c>
       <c r="D5">
-        <v>-0.7226038662571882</v>
+        <v>-0.6187106241031807</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.1586395122795705</v>
+        <v>-0.5582426627632566</v>
       </c>
       <c r="C6">
-        <v>-0.04685867652348353</v>
+        <v>-0.0476283695509185</v>
       </c>
       <c r="D6">
-        <v>-0.5495583720282609</v>
+        <v>-0.1594022731333998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1550068506166155</v>
+        <v>-0.3836084912877794</v>
       </c>
       <c r="C7">
-        <v>0.3579283073030791</v>
+        <v>0.3559899547303118</v>
       </c>
       <c r="D7">
-        <v>-0.3823493757770097</v>
+        <v>0.1488294211907005</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.4862415051370542</v>
+        <v>-0.1871789495673021</v>
       </c>
       <c r="C8">
-        <v>0.695615612408521</v>
+        <v>0.6948295765076163</v>
       </c>
       <c r="D8">
-        <v>-0.1903968576703051</v>
+        <v>0.4860365576501454</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.324444562701053</v>
+        <v>0.4645472512977922</v>
       </c>
       <c r="C9">
         <v>1.160304884241283</v>
       </c>
       <c r="D9">
-        <v>0.4645472512977922</v>
+        <v>1.324444562701053</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6248523183760679</v>
+        <v>0.3150325051078157</v>
       </c>
       <c r="C10">
-        <v>0.5770867149446632</v>
+        <v>0.5770486455318995</v>
       </c>
       <c r="D10">
-        <v>0.3110710456108421</v>
+        <v>0.6241614172598579</v>
       </c>
     </row>
   </sheetData>
